--- a/Organized_Data.xlsx
+++ b/Organized_Data.xlsx
@@ -27,13 +27,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +456,14 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -472,6 +484,14 @@
       <c r="D3" t="n">
         <v>100</v>
       </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,6 +512,14 @@
       <c r="D4" t="n">
         <v>11</v>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -512,6 +540,14 @@
       <c r="D5" t="n">
         <v>37</v>
       </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -531,6 +567,14 @@
       </c>
       <c r="D6" t="n">
         <v>46</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1265,7 +1309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,6 +1338,14 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1314,6 +1366,14 @@
       <c r="D3" t="n">
         <v>46</v>
       </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1334,6 +1394,14 @@
       <c r="D4" t="n">
         <v>44</v>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>53.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1354,6 +1422,14 @@
       <c r="D5" t="n">
         <v>65</v>
       </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1373,6 +1449,14 @@
       </c>
       <c r="D6" t="n">
         <v>9</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -2007,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D36"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,6 +2120,14 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2056,6 +2148,14 @@
       <c r="D3" t="n">
         <v>35</v>
       </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2076,6 +2176,14 @@
       <c r="D4" t="n">
         <v>99</v>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>49.56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2096,6 +2204,14 @@
       <c r="D5" t="n">
         <v>53</v>
       </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2115,6 +2231,14 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -2729,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2758,6 +2882,14 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2778,6 +2910,14 @@
       <c r="D3" t="n">
         <v>80</v>
       </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2798,6 +2938,14 @@
       <c r="D4" t="n">
         <v>43</v>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>54.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2818,6 +2966,14 @@
       <c r="D5" t="n">
         <v>98</v>
       </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2837,6 +2993,14 @@
       </c>
       <c r="D6" t="n">
         <v>49</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -3431,7 +3595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3460,6 +3624,14 @@
           <t>Grade</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Highest Grade</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3480,6 +3652,14 @@
       <c r="D3" t="n">
         <v>55</v>
       </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Grade</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3500,6 +3680,14 @@
       <c r="D4" t="n">
         <v>54</v>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Mean Grade</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>51.79</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3520,6 +3708,14 @@
       <c r="D5" t="n">
         <v>92</v>
       </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Median Grade</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3539,6 +3735,14 @@
       </c>
       <c r="D6" t="n">
         <v>91</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Number of Students</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="7">

--- a/Organized_Data.xlsx
+++ b/Organized_Data.xlsx
@@ -427,36 +427,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+          <t>A511960</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Highest Grade</t>
         </is>
@@ -468,23 +506,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A511960</t>
+          <t>A852290</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Lowest Grade</t>
         </is>
@@ -496,23 +534,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A852290</t>
+          <t>A191599</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+        <v>37</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mean Grade</t>
         </is>
@@ -524,23 +562,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A191599</t>
+          <t>A326605</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+        <v>46</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Median Grade</t>
         </is>
@@ -552,23 +590,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A326605</t>
+          <t>A429383</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+        <v>84</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
@@ -580,47 +618,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A429383</t>
+          <t>A963166</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A963166</t>
+          <t>A232898</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -630,97 +668,97 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A232898</t>
+          <t>A856084</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A856084</t>
+          <t>A315775</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A315775</t>
+          <t>A571267</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A571267</t>
+          <t>A779742</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A779742</t>
+          <t>A454051</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -730,77 +768,77 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A454051</t>
+          <t>A486318</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A486318</t>
+          <t>A564766</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A564766</t>
+          <t>A206975</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A206975</t>
+          <t>A201811</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -810,271 +848,271 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A201811</t>
+          <t>A893320</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A893320</t>
+          <t>A516256</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A516256</t>
+          <t>A817532</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A817532</t>
+          <t>A515984</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A515984</t>
+          <t>A941835</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A941835</t>
+          <t>A933686</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A933686</t>
+          <t>A654057</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A654057</t>
+          <t>A874468</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A874468</t>
+          <t>A994973</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A994973</t>
+          <t>A393154</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A393154</t>
+          <t>A323721</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A323721</t>
+          <t>A170362</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A170362</t>
+          <t>A621068</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A621068</t>
+          <t>A619854</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -1085,215 +1123,195 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A619854</t>
+          <t>A207386</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A207386</t>
+          <t>A674244</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A674244</t>
+          <t>A860197</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A860197</t>
+          <t>A643151</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A643151</t>
+          <t>A597576</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A597576</t>
+          <t>A257351</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A257351</t>
+          <t>A699748</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A699748</t>
+          <t>A810037</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A810037</t>
+          <t>A399574</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A399574</t>
+          <t>A609852</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A609852</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1309,36 +1327,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+          <t>A954650</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Highest Grade</t>
         </is>
@@ -1350,23 +1406,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A954650</t>
+          <t>A719848</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+        <v>44</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Lowest Grade</t>
         </is>
@@ -1378,7 +1434,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1388,13 +1444,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A719848</t>
+          <t>A731798</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+        <v>65</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mean Grade</t>
         </is>
@@ -1406,23 +1462,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A731798</t>
+          <t>A863769</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Median Grade</t>
         </is>
@@ -1434,23 +1490,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A863769</t>
+          <t>A304200</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
@@ -1462,87 +1518,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A304200</t>
+          <t>A233365</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A233365</t>
+          <t>A201981</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A201981</t>
+          <t>A520661</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A520661</t>
+          <t>A630060</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1552,51 +1608,51 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A630060</t>
+          <t>A400216</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A400216</t>
+          <t>A772179</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A772179</t>
+          <t>A773242</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1607,172 +1663,172 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A773242</t>
+          <t>A803666</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A803666</t>
+          <t>A416979</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A416979</t>
+          <t>A892596</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A892596</t>
+          <t>A751614</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A751614</t>
+          <t>A858580</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A858580</t>
+          <t>A676288</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A676288</t>
+          <t>A641012</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A641012</t>
+          <t>A791503</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A791503</t>
+          <t>A793139</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1782,81 +1838,81 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A793139</t>
+          <t>A500852</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A500852</t>
+          <t>A600500</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A600500</t>
+          <t>A924996</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A924996</t>
+          <t>A150818</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -1867,36 +1923,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A150818</t>
+          <t>A799480</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A799480</t>
+          <t>A344337</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1907,56 +1963,56 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A344337</t>
+          <t>A332047</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A332047</t>
+          <t>A845081</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A845081</t>
+          <t>A673135</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -1967,115 +2023,95 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A673135</t>
+          <t>A192932</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A192932</t>
+          <t>A524322</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A524322</t>
+          <t>A411805</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A411805</t>
+          <t>A259164</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A259164</t>
+          <t>A614195</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A614195</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
         <v>79</v>
       </c>
     </row>
@@ -2091,36 +2127,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+          <t>A503508</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Highest Grade</t>
         </is>
@@ -2132,23 +2206,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A503508</t>
+          <t>A892429</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+        <v>99</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Lowest Grade</t>
         </is>
@@ -2160,23 +2234,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A892429</t>
+          <t>A650359</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+        <v>53</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mean Grade</t>
         </is>
@@ -2188,23 +2262,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A650359</t>
+          <t>A977417</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Median Grade</t>
         </is>
@@ -2216,23 +2290,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A977417</t>
+          <t>A726795</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+        <v>79</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
@@ -2244,147 +2318,147 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A726795</t>
+          <t>A236589</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A236589</t>
+          <t>A687088</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A687088</t>
+          <t>A117549</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A117549</t>
+          <t>A563000</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A563000</t>
+          <t>A920130</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A920130</t>
+          <t>A134313</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A134313</t>
+          <t>A158991</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2394,17 +2468,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A158991</t>
+          <t>A915440</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2414,17 +2488,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A915440</t>
+          <t>A371439</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2434,77 +2508,77 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A371439</t>
+          <t>A971906</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A971906</t>
+          <t>A537662</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A537662</t>
+          <t>A229862</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A229862</t>
+          <t>A539099</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2514,17 +2588,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A539099</t>
+          <t>A670406</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2534,51 +2608,51 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A670406</t>
+          <t>A630640</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A630640</t>
+          <t>A376888</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A376888</t>
+          <t>A102812</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -2589,122 +2663,122 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A102812</t>
+          <t>A610724</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A610724</t>
+          <t>A296175</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A296175</t>
+          <t>A256031</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A256031</t>
+          <t>A347087</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A347087</t>
+          <t>A285995</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A285995</t>
+          <t>A980949</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2714,130 +2788,110 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A980949</t>
+          <t>A260772</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A260772</t>
+          <t>A337854</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A337854</t>
+          <t>A943057</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A943057</t>
+          <t>A831715</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A831715</t>
+          <t>A863519</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A863519</t>
+          <t>A440904</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A440904</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2853,36 +2907,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+          <t>A419955</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Highest Grade</t>
         </is>
@@ -2894,23 +2986,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A419955</t>
+          <t>A547872</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+        <v>43</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Lowest Grade</t>
         </is>
@@ -2922,23 +3014,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A547872</t>
+          <t>A200743</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+        <v>98</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mean Grade</t>
         </is>
@@ -2955,18 +3047,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A200743</t>
+          <t>A314989</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+        <v>49</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Median Grade</t>
         </is>
@@ -2978,23 +3070,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A314989</t>
+          <t>A402372</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+        <v>44</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
@@ -3006,7 +3098,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3016,17 +3108,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A402372</t>
+          <t>A913128</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3036,37 +3128,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A913128</t>
+          <t>A105615</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A105615</t>
+          <t>A371671</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3076,17 +3168,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A371671</t>
+          <t>A323300</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3096,37 +3188,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A323300</t>
+          <t>A267168</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A267168</t>
+          <t>A992643</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3136,77 +3228,77 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A992643</t>
+          <t>A349246</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A349246</t>
+          <t>A846325</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A846325</t>
+          <t>A460567</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A460567</t>
+          <t>A122709</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3216,11 +3308,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A122709</t>
+          <t>A308435</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -3231,36 +3323,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A308435</t>
+          <t>A125691</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A125691</t>
+          <t>A634421</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -3271,196 +3363,196 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A634421</t>
+          <t>A604398</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A604398</t>
+          <t>A480800</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A480800</t>
+          <t>A497972</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A497972</t>
+          <t>A852078</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A852078</t>
+          <t>A426945</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A426945</t>
+          <t>A296980</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A296980</t>
+          <t>A300703</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A300703</t>
+          <t>A716956</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A716956</t>
+          <t>A684265</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A684265</t>
+          <t>A509185</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -3471,72 +3563,72 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A509185</t>
+          <t>A899920</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A899920</t>
+          <t>A812418</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A812418</t>
+          <t>A384253</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A384253</t>
+          <t>A865432</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3546,40 +3638,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A865432</t>
+          <t>A800071</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A800071</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3595,36 +3667,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Summary Statistics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+          <t>A660145</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Highest Grade</t>
         </is>
@@ -3636,23 +3746,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A660145</t>
+          <t>A173278</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+        <v>54</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Lowest Grade</t>
         </is>
@@ -3669,18 +3779,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A173278</t>
+          <t>A486548</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+        <v>92</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mean Grade</t>
         </is>
@@ -3692,23 +3802,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A486548</t>
+          <t>A499761</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+        <v>91</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Median Grade</t>
         </is>
@@ -3720,23 +3830,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A499761</t>
+          <t>A199405</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number of Students</t>
         </is>
@@ -3748,7 +3858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3758,17 +3868,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A199405</t>
+          <t>A785670</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3778,11 +3888,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A785670</t>
+          <t>A335383</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -3793,82 +3903,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A335383</t>
+          <t>A793880</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A793880</t>
+          <t>A889747</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A889747</t>
+          <t>A723501</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A723501</t>
+          <t>A871317</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3878,51 +3988,51 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A871317</t>
+          <t>A174596</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A174596</t>
+          <t>A307595</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A307595</t>
+          <t>A779442</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3933,116 +4043,116 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A779442</t>
+          <t>A589928</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A589928</t>
+          <t>A627045</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A627045</t>
+          <t>A755395</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A755395</t>
+          <t>A967916</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A967916</t>
+          <t>A426255</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A426255</t>
+          <t>A282768</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -4053,12 +4163,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A282768</t>
+          <t>A788958</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -4068,87 +4178,87 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A788958</t>
+          <t>A123679</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A123679</t>
+          <t>A781203</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A781203</t>
+          <t>A689526</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A689526</t>
+          <t>A849390</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4158,177 +4268,177 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A849390</t>
+          <t>A269091</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A269091</t>
+          <t>A553176</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A553176</t>
+          <t>A908120</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A908120</t>
+          <t>A548819</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A548819</t>
+          <t>A213644</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A213644</t>
+          <t>A206913</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A206913</t>
+          <t>A335585</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A335585</t>
+          <t>A768962</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A768962</t>
+          <t>A723308</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4338,31 +4448,31 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A723308</t>
+          <t>A543651</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A543651</t>
+          <t>A377141</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -4373,55 +4483,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A377141</t>
+          <t>A696942</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A696942</t>
+          <t>A701491</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A701491</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
         <v>32</v>
       </c>
     </row>
